--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -31,7 +31,7 @@
     <t>ABOBAKAR</t>
   </si>
   <si>
-    <t>ranaabobakarit@gmail.com</t>
+    <t>ranaabobakar777@gmail.com</t>
   </si>
   <si>
     <t>AOA</t>
@@ -40,13 +40,16 @@
     <t>SHAHZEB</t>
   </si>
   <si>
-    <t>19014156-022@uog.edu.pk</t>
-  </si>
-  <si>
     <t>ZEESHAN</t>
   </si>
   <si>
-    <t>ranaabobakar777@gmail.com</t>
+    <t>shan</t>
+  </si>
+  <si>
+    <t>shan@gmail.com</t>
+  </si>
+  <si>
+    <t>WAS</t>
   </si>
 </sst>
 </file>
@@ -62,6 +65,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <charset val="1"/>
       <color rgb="FF0000FF"/>
       <family val="2"/>
       <sz val="10"/>
@@ -112,15 +116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.53515625" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.55078125" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.87" customWidth="1"/>
+    <col min="2" max="2" width="14.88" customWidth="1"/>
     <col min="3" max="3" width="33.62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -160,7 +164,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -171,21 +175,30 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" ht="12.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <headerFooter>

--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -31,32 +31,29 @@
     <t>ABOBAKAR</t>
   </si>
   <si>
+    <t>ranaabobakarit@gmail.com</t>
+  </si>
+  <si>
+    <t>kya hal ha</t>
+  </si>
+  <si>
+    <t>SHAHZEB</t>
+  </si>
+  <si>
     <t>ranaabobakar777@gmail.com</t>
   </si>
   <si>
-    <t>AOA</t>
-  </si>
-  <si>
-    <t>SHAHZEB</t>
-  </si>
-  <si>
     <t>ZEESHAN</t>
   </si>
   <si>
-    <t>shan</t>
-  </si>
-  <si>
-    <t>shan@gmail.com</t>
-  </si>
-  <si>
-    <t>WAS</t>
+    <t>abobakarit786@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -67,6 +64,11 @@
     <font>
       <charset val="1"/>
       <color rgb="FF0000FF"/>
+      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,9 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -116,16 +121,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.55078125" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="14.88" customWidth="1"/>
     <col min="3" max="3" width="33.62" customWidth="1"/>
+    <col min="4" max="4" width="35.57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -164,9 +170,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -175,27 +181,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
